--- a/docs/a500-bom.xlsx
+++ b/docs/a500-bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="531">
   <si>
     <t>Part Id</t>
   </si>
@@ -46,7 +46,7 @@
     <t>PCB Assembly (PAL)</t>
   </si>
   <si>
-    <t>Rämixx 500 by SukkoPera</t>
+    <t>Rämixx500 by SukkoPera</t>
   </si>
   <si>
     <t>312812-02</t>
@@ -490,7 +490,7 @@
     <t>900463-16</t>
   </si>
   <si>
-    <t>1000pF - MLC X7R</t>
+    <t>1nF - MLC X7R</t>
   </si>
   <si>
     <t>80-C420C102J1G-TR</t>
@@ -502,7 +502,7 @@
     <t>900463-23</t>
   </si>
   <si>
-    <t>3900pF - MLC X7R</t>
+    <t>3.9nF - MLC X7R</t>
   </si>
   <si>
     <t>80-C430C392GAG5TA</t>
@@ -514,7 +514,7 @@
     <t>900463-26</t>
   </si>
   <si>
-    <t>6800pF - MLC X7R</t>
+    <t>6.8nF - MLC X7R</t>
   </si>
   <si>
     <t>80-C430C682GAG5TA</t>
@@ -964,7 +964,10 @@
     <t>251842-02</t>
   </si>
   <si>
-    <t>EMI Filter 100pF</t>
+    <t>EMI Filter 100pF, no ferrite</t>
+  </si>
+  <si>
+    <t>Murata DSN6NC51H101</t>
   </si>
   <si>
     <t>TH-3</t>
@@ -979,6 +982,12 @@
     <t>EMI Filter 150pF</t>
   </si>
   <si>
+    <t>Murata DSS1NB32A151</t>
+  </si>
+  <si>
+    <t>81-DSS1NB32A151Q91A</t>
+  </si>
+  <si>
     <t>E402 E434 E532 E534</t>
   </si>
   <si>
@@ -988,6 +997,12 @@
     <t>EMI Filter 270pF</t>
   </si>
   <si>
+    <t>Murata DSS1NB32A271</t>
+  </si>
+  <si>
+    <t>81-DSS1NB32A271Q91A</t>
+  </si>
+  <si>
     <t>E305 E306</t>
   </si>
   <si>
@@ -997,13 +1012,25 @@
     <t>EMI Filter 470pF</t>
   </si>
   <si>
+    <t>Murata DSS1NB32A471</t>
+  </si>
+  <si>
+    <t>81-DSS1NB32A471Q91A</t>
+  </si>
+  <si>
     <t>E415 E416 E417 E425 E426 E427 E441 E442 E443 E444 E520 E531 E533 E535 E536 E537 E538</t>
   </si>
   <si>
     <t>390275-01</t>
   </si>
   <si>
-    <t>EMI Filter 6800pF</t>
+    <t>EMI Filter 6.8nF</t>
+  </si>
+  <si>
+    <t>Murata DSS1NB32A682</t>
+  </si>
+  <si>
+    <t>81-DSS1NB32A682Q91A</t>
   </si>
   <si>
     <t>E302 E303 E411 E412 E413 E414 E421 E422 E423 E424</t>
@@ -1012,7 +1039,13 @@
     <t>390297-05</t>
   </si>
   <si>
-    <t>EMI Filter 0.01µF</t>
+    <t>EMI Filter 10nF</t>
+  </si>
+  <si>
+    <t>Murata DSS1NB32A103</t>
+  </si>
+  <si>
+    <t>81-DSS1NB32A103Q91A</t>
   </si>
   <si>
     <t>E101 E110 E401 E403 E404 E405 E406 E407 E408 E601 E602 E702 E703 E704</t>
@@ -1046,6 +1079,9 @@
   </si>
   <si>
     <t>Radial</t>
+  </si>
+  <si>
+    <t>80-B-01-A</t>
   </si>
   <si>
     <t>FB802</t>
@@ -1589,7 +1625,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Version: 0.1 (2024-02-29)
+      <t xml:space="preserve">Version: 0.2 (2024-03-25)
 </t>
     </r>
     <r>
@@ -3609,155 +3645,191 @@
       <c r="C83" t="s">
         <v>316</v>
       </c>
+      <c r="D83" t="s">
+        <v>317</v>
+      </c>
       <c r="E83" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B84">
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>320</v>
+        <v>321</v>
+      </c>
+      <c r="D84" t="s">
+        <v>322</v>
       </c>
       <c r="E84" t="s">
-        <v>317</v>
+        <v>318</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B85">
         <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>323</v>
+        <v>326</v>
+      </c>
+      <c r="D85" t="s">
+        <v>327</v>
       </c>
       <c r="E85" t="s">
-        <v>317</v>
+        <v>318</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B86">
         <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>326</v>
+        <v>331</v>
+      </c>
+      <c r="D86" t="s">
+        <v>332</v>
       </c>
       <c r="E86" t="s">
-        <v>317</v>
+        <v>318</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B87">
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>329</v>
+        <v>336</v>
+      </c>
+      <c r="D87" t="s">
+        <v>337</v>
       </c>
       <c r="E87" t="s">
-        <v>317</v>
+        <v>318</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B88">
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>332</v>
+        <v>341</v>
+      </c>
+      <c r="D88" t="s">
+        <v>342</v>
       </c>
       <c r="E88" t="s">
-        <v>317</v>
+        <v>318</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="D89" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="E89" t="s">
         <v>132</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="B90">
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="E90" t="s">
         <v>132</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="E91" t="s">
-        <v>343</v>
+        <v>354</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3768,61 +3840,61 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="E93" t="s">
         <v>60</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="E94" t="s">
         <v>60</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="E95" t="s">
         <v>132</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3833,285 +3905,285 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="D97" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="E97" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="D98" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="D99" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="D100" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="E100" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="D101" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="E101" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="D102" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="E102" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="D103" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="D104" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="E104" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="D105" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="D106" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="E106" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="D107" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="E107" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="D108" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="E108" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="D109" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="E109" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4122,38 +4194,38 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="D111" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4164,22 +4236,22 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="B114">
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="D114" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="E114" t="s">
         <v>33</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>34</v>
@@ -4187,22 +4259,22 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="D115" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="E115" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>43</v>
@@ -4210,45 +4282,45 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D116" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="E116" t="s">
         <v>23</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="D117" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="E117" t="s">
         <v>38</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>39</v>
@@ -4256,22 +4328,22 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="D118" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="E118" t="s">
         <v>17</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>18</v>
@@ -4279,7 +4351,7 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4293,13 +4365,13 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="E120" t="s">
         <v>110</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>112</v>
@@ -4310,16 +4382,16 @@
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="E121" t="s">
         <v>60</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4327,16 +4399,16 @@
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="E122" t="s">
         <v>65</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4344,13 +4416,13 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="E123" t="s">
         <v>47</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>48</v>
@@ -4358,22 +4430,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="B124">
         <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="E124" t="s">
         <v>51</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4387,7 +4459,7 @@
         <v>307</v>
       </c>
       <c r="D125" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="E125" t="s">
         <v>292</v>
@@ -4396,7 +4468,7 @@
         <v>308</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4404,21 +4476,21 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="D126" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="E126" t="s">
         <v>179</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4432,19 +4504,19 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="D128" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="E128" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4452,19 +4524,19 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="D129" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="E129" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4472,19 +4544,19 @@
         <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="D130" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="E130" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4498,7 +4570,7 @@
         <v>130</v>
       </c>
       <c r="D131" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="E131" t="s">
         <v>132</v>
@@ -4507,7 +4579,7 @@
         <v>133</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4521,7 +4593,7 @@
         <v>125</v>
       </c>
       <c r="D132" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="E132" t="s">
         <v>117</v>
@@ -4530,7 +4602,7 @@
         <v>126</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4544,7 +4616,7 @@
         <v>257</v>
       </c>
       <c r="D133" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="E133" t="s">
         <v>132</v>
@@ -4553,7 +4625,7 @@
         <v>258</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4567,7 +4639,7 @@
         <v>261</v>
       </c>
       <c r="D134" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="E134" t="s">
         <v>132</v>
@@ -4576,7 +4648,7 @@
         <v>262</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4590,7 +4662,7 @@
         <v>142</v>
       </c>
       <c r="D135" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="E135" t="s">
         <v>138</v>
@@ -4599,7 +4671,7 @@
         <v>143</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4607,19 +4679,19 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="D136" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="E136" t="s">
         <v>132</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4627,16 +4699,16 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="E137" t="s">
         <v>132</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4644,16 +4716,16 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="D138" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4661,16 +4733,16 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="D139" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4678,18 +4750,18 @@
         <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="D140" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="60" customHeight="1">
       <c r="A142" s="5" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -4771,41 +4843,47 @@
     <hyperlink ref="F79" r:id="rId58"/>
     <hyperlink ref="F80" r:id="rId59"/>
     <hyperlink ref="F81" r:id="rId60"/>
-    <hyperlink ref="F95" r:id="rId61"/>
-    <hyperlink ref="F97" r:id="rId62"/>
-    <hyperlink ref="F98" r:id="rId63"/>
-    <hyperlink ref="F99" r:id="rId64"/>
-    <hyperlink ref="F101" r:id="rId65"/>
-    <hyperlink ref="F102" r:id="rId66"/>
-    <hyperlink ref="F105" r:id="rId67"/>
-    <hyperlink ref="F106" r:id="rId68"/>
-    <hyperlink ref="F107" r:id="rId69"/>
-    <hyperlink ref="F108" r:id="rId70"/>
-    <hyperlink ref="F109" r:id="rId71"/>
-    <hyperlink ref="F114" r:id="rId72"/>
-    <hyperlink ref="F115" r:id="rId73"/>
-    <hyperlink ref="F116" r:id="rId74"/>
-    <hyperlink ref="F117" r:id="rId75"/>
-    <hyperlink ref="F118" r:id="rId76"/>
-    <hyperlink ref="F120" r:id="rId77"/>
-    <hyperlink ref="F121" r:id="rId78"/>
-    <hyperlink ref="F122" r:id="rId79"/>
-    <hyperlink ref="F123" r:id="rId80"/>
-    <hyperlink ref="F124" r:id="rId81"/>
-    <hyperlink ref="F125" r:id="rId82"/>
-    <hyperlink ref="F128" r:id="rId83"/>
-    <hyperlink ref="F129" r:id="rId84"/>
-    <hyperlink ref="F130" r:id="rId85"/>
-    <hyperlink ref="F131" r:id="rId86"/>
-    <hyperlink ref="F132" r:id="rId87"/>
-    <hyperlink ref="F133" r:id="rId88"/>
-    <hyperlink ref="F134" r:id="rId89"/>
-    <hyperlink ref="F135" r:id="rId90"/>
-    <hyperlink ref="F136" r:id="rId91"/>
-    <hyperlink ref="F137" r:id="rId92"/>
-    <hyperlink ref="F138" r:id="rId93"/>
-    <hyperlink ref="F139" r:id="rId94"/>
-    <hyperlink ref="F140" r:id="rId95"/>
+    <hyperlink ref="F84" r:id="rId61"/>
+    <hyperlink ref="F85" r:id="rId62"/>
+    <hyperlink ref="F86" r:id="rId63"/>
+    <hyperlink ref="F87" r:id="rId64"/>
+    <hyperlink ref="F88" r:id="rId65"/>
+    <hyperlink ref="F91" r:id="rId66"/>
+    <hyperlink ref="F95" r:id="rId67"/>
+    <hyperlink ref="F97" r:id="rId68"/>
+    <hyperlink ref="F98" r:id="rId69"/>
+    <hyperlink ref="F99" r:id="rId70"/>
+    <hyperlink ref="F101" r:id="rId71"/>
+    <hyperlink ref="F102" r:id="rId72"/>
+    <hyperlink ref="F105" r:id="rId73"/>
+    <hyperlink ref="F106" r:id="rId74"/>
+    <hyperlink ref="F107" r:id="rId75"/>
+    <hyperlink ref="F108" r:id="rId76"/>
+    <hyperlink ref="F109" r:id="rId77"/>
+    <hyperlink ref="F114" r:id="rId78"/>
+    <hyperlink ref="F115" r:id="rId79"/>
+    <hyperlink ref="F116" r:id="rId80"/>
+    <hyperlink ref="F117" r:id="rId81"/>
+    <hyperlink ref="F118" r:id="rId82"/>
+    <hyperlink ref="F120" r:id="rId83"/>
+    <hyperlink ref="F121" r:id="rId84"/>
+    <hyperlink ref="F122" r:id="rId85"/>
+    <hyperlink ref="F123" r:id="rId86"/>
+    <hyperlink ref="F124" r:id="rId87"/>
+    <hyperlink ref="F125" r:id="rId88"/>
+    <hyperlink ref="F128" r:id="rId89"/>
+    <hyperlink ref="F129" r:id="rId90"/>
+    <hyperlink ref="F130" r:id="rId91"/>
+    <hyperlink ref="F131" r:id="rId92"/>
+    <hyperlink ref="F132" r:id="rId93"/>
+    <hyperlink ref="F133" r:id="rId94"/>
+    <hyperlink ref="F134" r:id="rId95"/>
+    <hyperlink ref="F135" r:id="rId96"/>
+    <hyperlink ref="F136" r:id="rId97"/>
+    <hyperlink ref="F137" r:id="rId98"/>
+    <hyperlink ref="F138" r:id="rId99"/>
+    <hyperlink ref="F139" r:id="rId100"/>
+    <hyperlink ref="F140" r:id="rId101"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/a500-bom.xlsx
+++ b/docs/a500-bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="536">
   <si>
     <t>Part Id</t>
   </si>
@@ -967,12 +967,15 @@
     <t>EMI Filter 100pF, no ferrite</t>
   </si>
   <si>
-    <t>Murata DSN6NC51H101</t>
+    <t>Murata DSN6NC51H101, replacement is with ferrite</t>
   </si>
   <si>
     <t>TH-3</t>
   </si>
   <si>
+    <t>81-DSS1NB32A101Q91A</t>
+  </si>
+  <si>
     <t>E511 E512 E513 E514 E515 E516 E517 E518 E519 E521 E522 E523 E524 E611 E612 E613 E614 E615 E616 E617 E618 E619 E620 E621 E622 E623 E624 E625 E626 E631 E632</t>
   </si>
   <si>
@@ -1069,6 +1072,9 @@
     <t>Ferrite Bead</t>
   </si>
   <si>
+    <t>542-FB20020-4B-RC</t>
+  </si>
+  <si>
     <t>E431 E432 E433 E435</t>
   </si>
   <si>
@@ -1081,7 +1087,7 @@
     <t>Radial</t>
   </si>
   <si>
-    <t>80-B-01-A</t>
+    <t>434-BEAD-10-600P-02</t>
   </si>
   <si>
     <t>FB802</t>
@@ -1225,7 +1231,7 @@
     <t>5 Pin Square DIN</t>
   </si>
   <si>
-    <t>Power Dynamics DS-215</t>
+    <t>Power Dynamics DS-215. Rämixx500 see below.</t>
   </si>
   <si>
     <t>CN8</t>
@@ -1604,6 +1610,15 @@
   </si>
   <si>
     <t>200-SNT100BKG</t>
+  </si>
+  <si>
+    <t>6 Pin Round DIN</t>
+  </si>
+  <si>
+    <t>CN8 alternative. Requires modification to PSU cable!</t>
+  </si>
+  <si>
+    <t>490-SDF-60J</t>
   </si>
   <si>
     <r>
@@ -2059,7 +2074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3651,185 +3666,191 @@
       <c r="E83" t="s">
         <v>318</v>
       </c>
+      <c r="F83" s="4" t="s">
+        <v>319</v>
+      </c>
       <c r="G83" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B84">
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D84" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E84" t="s">
         <v>318</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B85">
         <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D85" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E85" t="s">
         <v>318</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B86">
         <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D86" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E86" t="s">
         <v>318</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B87">
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D87" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E87" t="s">
         <v>318</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B88">
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D88" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E88" t="s">
         <v>318</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D89" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E89" t="s">
         <v>132</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B90">
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E90" t="s">
         <v>132</v>
       </c>
+      <c r="F90" s="4" t="s">
+        <v>352</v>
+      </c>
       <c r="G90" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E91" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3840,61 +3861,61 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E93" t="s">
         <v>60</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E94" t="s">
         <v>60</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E95" t="s">
         <v>132</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3905,285 +3926,285 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D97" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E97" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D98" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D99" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D100" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E100" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D101" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E101" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D102" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E102" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D103" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D104" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E104" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D105" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D106" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E106" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D107" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E107" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D108" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E108" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D109" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E109" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4194,38 +4215,38 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D111" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4236,22 +4257,22 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B114">
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D114" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E114" t="s">
         <v>33</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>34</v>
@@ -4259,22 +4280,22 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D115" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E115" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>43</v>
@@ -4282,45 +4303,45 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D116" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E116" t="s">
         <v>23</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D117" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E117" t="s">
         <v>38</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>39</v>
@@ -4328,22 +4349,22 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D118" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E118" t="s">
         <v>17</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>18</v>
@@ -4351,7 +4372,7 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4365,13 +4386,13 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E120" t="s">
         <v>110</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>112</v>
@@ -4382,16 +4403,16 @@
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E121" t="s">
         <v>60</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4399,16 +4420,16 @@
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E122" t="s">
         <v>65</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4416,13 +4437,13 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E123" t="s">
         <v>47</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>48</v>
@@ -4430,22 +4451,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B124">
         <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E124" t="s">
         <v>51</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4459,7 +4480,7 @@
         <v>307</v>
       </c>
       <c r="D125" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E125" t="s">
         <v>292</v>
@@ -4468,7 +4489,7 @@
         <v>308</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4476,21 +4497,21 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D126" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E126" t="s">
         <v>179</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4504,19 +4525,19 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D128" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E128" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4524,19 +4545,19 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D129" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E129" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4544,19 +4565,19 @@
         <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D130" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E130" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4570,7 +4591,7 @@
         <v>130</v>
       </c>
       <c r="D131" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E131" t="s">
         <v>132</v>
@@ -4579,7 +4600,7 @@
         <v>133</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4593,7 +4614,7 @@
         <v>125</v>
       </c>
       <c r="D132" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E132" t="s">
         <v>117</v>
@@ -4602,7 +4623,7 @@
         <v>126</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4616,7 +4637,7 @@
         <v>257</v>
       </c>
       <c r="D133" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E133" t="s">
         <v>132</v>
@@ -4625,7 +4646,7 @@
         <v>258</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4639,7 +4660,7 @@
         <v>261</v>
       </c>
       <c r="D134" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E134" t="s">
         <v>132</v>
@@ -4648,7 +4669,7 @@
         <v>262</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4662,7 +4683,7 @@
         <v>142</v>
       </c>
       <c r="D135" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E135" t="s">
         <v>138</v>
@@ -4671,7 +4692,7 @@
         <v>143</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4679,19 +4700,19 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D136" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E136" t="s">
         <v>132</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4699,16 +4720,16 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E137" t="s">
         <v>132</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4716,16 +4737,16 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D138" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4733,16 +4754,16 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D139" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4750,18 +4771,35 @@
         <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D140" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="60" customHeight="1">
-      <c r="A142" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>532</v>
+      </c>
+      <c r="D141" t="s">
+        <v>533</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="60" customHeight="1">
+      <c r="A143" s="5" t="s">
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -4780,7 +4818,7 @@
     <mergeCell ref="A113:G113"/>
     <mergeCell ref="A119:G119"/>
     <mergeCell ref="A127:G127"/>
-    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="A143:G143"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F16" r:id="rId1"/>
@@ -4843,47 +4881,50 @@
     <hyperlink ref="F79" r:id="rId58"/>
     <hyperlink ref="F80" r:id="rId59"/>
     <hyperlink ref="F81" r:id="rId60"/>
-    <hyperlink ref="F84" r:id="rId61"/>
-    <hyperlink ref="F85" r:id="rId62"/>
-    <hyperlink ref="F86" r:id="rId63"/>
-    <hyperlink ref="F87" r:id="rId64"/>
-    <hyperlink ref="F88" r:id="rId65"/>
-    <hyperlink ref="F91" r:id="rId66"/>
-    <hyperlink ref="F95" r:id="rId67"/>
-    <hyperlink ref="F97" r:id="rId68"/>
-    <hyperlink ref="F98" r:id="rId69"/>
-    <hyperlink ref="F99" r:id="rId70"/>
-    <hyperlink ref="F101" r:id="rId71"/>
-    <hyperlink ref="F102" r:id="rId72"/>
-    <hyperlink ref="F105" r:id="rId73"/>
-    <hyperlink ref="F106" r:id="rId74"/>
-    <hyperlink ref="F107" r:id="rId75"/>
-    <hyperlink ref="F108" r:id="rId76"/>
-    <hyperlink ref="F109" r:id="rId77"/>
-    <hyperlink ref="F114" r:id="rId78"/>
-    <hyperlink ref="F115" r:id="rId79"/>
-    <hyperlink ref="F116" r:id="rId80"/>
-    <hyperlink ref="F117" r:id="rId81"/>
-    <hyperlink ref="F118" r:id="rId82"/>
-    <hyperlink ref="F120" r:id="rId83"/>
-    <hyperlink ref="F121" r:id="rId84"/>
-    <hyperlink ref="F122" r:id="rId85"/>
-    <hyperlink ref="F123" r:id="rId86"/>
-    <hyperlink ref="F124" r:id="rId87"/>
-    <hyperlink ref="F125" r:id="rId88"/>
-    <hyperlink ref="F128" r:id="rId89"/>
-    <hyperlink ref="F129" r:id="rId90"/>
-    <hyperlink ref="F130" r:id="rId91"/>
-    <hyperlink ref="F131" r:id="rId92"/>
-    <hyperlink ref="F132" r:id="rId93"/>
-    <hyperlink ref="F133" r:id="rId94"/>
-    <hyperlink ref="F134" r:id="rId95"/>
-    <hyperlink ref="F135" r:id="rId96"/>
-    <hyperlink ref="F136" r:id="rId97"/>
-    <hyperlink ref="F137" r:id="rId98"/>
-    <hyperlink ref="F138" r:id="rId99"/>
-    <hyperlink ref="F139" r:id="rId100"/>
-    <hyperlink ref="F140" r:id="rId101"/>
+    <hyperlink ref="F83" r:id="rId61"/>
+    <hyperlink ref="F84" r:id="rId62"/>
+    <hyperlink ref="F85" r:id="rId63"/>
+    <hyperlink ref="F86" r:id="rId64"/>
+    <hyperlink ref="F87" r:id="rId65"/>
+    <hyperlink ref="F88" r:id="rId66"/>
+    <hyperlink ref="F90" r:id="rId67"/>
+    <hyperlink ref="F91" r:id="rId68"/>
+    <hyperlink ref="F95" r:id="rId69"/>
+    <hyperlink ref="F97" r:id="rId70"/>
+    <hyperlink ref="F98" r:id="rId71"/>
+    <hyperlink ref="F99" r:id="rId72"/>
+    <hyperlink ref="F101" r:id="rId73"/>
+    <hyperlink ref="F102" r:id="rId74"/>
+    <hyperlink ref="F105" r:id="rId75"/>
+    <hyperlink ref="F106" r:id="rId76"/>
+    <hyperlink ref="F107" r:id="rId77"/>
+    <hyperlink ref="F108" r:id="rId78"/>
+    <hyperlink ref="F109" r:id="rId79"/>
+    <hyperlink ref="F114" r:id="rId80"/>
+    <hyperlink ref="F115" r:id="rId81"/>
+    <hyperlink ref="F116" r:id="rId82"/>
+    <hyperlink ref="F117" r:id="rId83"/>
+    <hyperlink ref="F118" r:id="rId84"/>
+    <hyperlink ref="F120" r:id="rId85"/>
+    <hyperlink ref="F121" r:id="rId86"/>
+    <hyperlink ref="F122" r:id="rId87"/>
+    <hyperlink ref="F123" r:id="rId88"/>
+    <hyperlink ref="F124" r:id="rId89"/>
+    <hyperlink ref="F125" r:id="rId90"/>
+    <hyperlink ref="F128" r:id="rId91"/>
+    <hyperlink ref="F129" r:id="rId92"/>
+    <hyperlink ref="F130" r:id="rId93"/>
+    <hyperlink ref="F131" r:id="rId94"/>
+    <hyperlink ref="F132" r:id="rId95"/>
+    <hyperlink ref="F133" r:id="rId96"/>
+    <hyperlink ref="F134" r:id="rId97"/>
+    <hyperlink ref="F135" r:id="rId98"/>
+    <hyperlink ref="F136" r:id="rId99"/>
+    <hyperlink ref="F137" r:id="rId100"/>
+    <hyperlink ref="F138" r:id="rId101"/>
+    <hyperlink ref="F139" r:id="rId102"/>
+    <hyperlink ref="F140" r:id="rId103"/>
+    <hyperlink ref="F141" r:id="rId104"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/a500-bom.xlsx
+++ b/docs/a500-bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="539">
   <si>
     <t>Part Id</t>
   </si>
@@ -43,16 +43,16 @@
     <t>312812-01</t>
   </si>
   <si>
-    <t>PCB Assembly (PAL)</t>
-  </si>
-  <si>
-    <t>Rämixx500 by SukkoPera</t>
+    <t>PCB Assembly</t>
+  </si>
+  <si>
+    <t>[PAL] Rämixx500 by SukkoPera</t>
   </si>
   <si>
     <t>312812-02</t>
   </si>
   <si>
-    <t>PCB Assembly (NTSC)</t>
+    <t>[NTSC] Rämixx500 by SukkoPera</t>
   </si>
   <si>
     <t>Custom Chips</t>
@@ -61,10 +61,10 @@
     <t>390544-01</t>
   </si>
   <si>
-    <t>MOS 8375 Agnus 2MB (PAL)</t>
-  </si>
-  <si>
-    <t>Do not use other types!</t>
+    <t>MOS 8375 Agnus 2MB</t>
+  </si>
+  <si>
+    <t>[RARE] [PAL] Do not use other types!</t>
   </si>
   <si>
     <t>PLCC84</t>
@@ -76,7 +76,7 @@
     <t>390544-02</t>
   </si>
   <si>
-    <t>MOS 8375 Agnus 2MB (NTSC)</t>
+    <t>[RARE] [NTSC] Do not use other types!</t>
   </si>
   <si>
     <t>252127-02</t>
@@ -85,6 +85,9 @@
     <t>MOS 8364R7 Paula</t>
   </si>
   <si>
+    <t xml:space="preserve">[RARE] </t>
+  </si>
+  <si>
     <t>DIP48</t>
   </si>
   <si>
@@ -154,7 +157,7 @@
     <t>OKI MSM6242B RTC</t>
   </si>
   <si>
-    <t>Replacement: RTC72421A (do not populate Y9, TC9, C911)</t>
+    <t>[RARE] Replacement: RTC72421A (do not populate Y9, TC9, C911)</t>
   </si>
   <si>
     <t>DIP18</t>
@@ -235,7 +238,7 @@
     <t>74F139, Dual 1-of-4 Decoder/Demultiplexer</t>
   </si>
   <si>
-    <t>Replacement: 74ACT139</t>
+    <t>[RARE] Replacement: 74ACT139</t>
   </si>
   <si>
     <t>595-CD74ACT139E</t>
@@ -967,7 +970,7 @@
     <t>EMI Filter 100pF, no ferrite</t>
   </si>
   <si>
-    <t>Murata DSN6NC51H101, replacement is with ferrite</t>
+    <t>[RARE] Murata DSN6NC51H101, replacement is with ferrite</t>
   </si>
   <si>
     <t>TH-3</t>
@@ -1060,7 +1063,7 @@
     <t>Line Filter</t>
   </si>
   <si>
-    <t>Rämixx500 replacement: see below</t>
+    <t>[RARE] Rämixx500 replacement: see below</t>
   </si>
   <si>
     <t>LF1</t>
@@ -1099,7 +1102,10 @@
     <t>252344-01</t>
   </si>
   <si>
-    <t>28.37516 MHz Oscillator, metal (PAL)</t>
+    <t>28.37516 MHz Oscillator, metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[RARE] [PAL] </t>
   </si>
   <si>
     <t>X1</t>
@@ -1108,7 +1114,10 @@
     <t>325566-14</t>
   </si>
   <si>
-    <t>28.63636 MHz Oscillator, metal (NTSC)</t>
+    <t>28.63636 MHz Oscillator, metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[RARE] [NTSC] </t>
   </si>
   <si>
     <t>900560-01</t>
@@ -1180,7 +1189,7 @@
     <t>D-Sub DB-23 Female</t>
   </si>
   <si>
-    <t>External Floppy</t>
+    <t>[RARE] External Floppy</t>
   </si>
   <si>
     <t>DB23S</t>
@@ -1231,7 +1240,7 @@
     <t>5 Pin Square DIN</t>
   </si>
   <si>
-    <t>Power Dynamics DS-215. Rämixx500 see below.</t>
+    <t>[RARE] Power Dynamics DS-215. Rämixx500 see below.</t>
   </si>
   <si>
     <t>CN8</t>
@@ -1243,7 +1252,7 @@
     <t>D-Sub DB-23 Male</t>
   </si>
   <si>
-    <t>Video</t>
+    <t>[RARE] Video</t>
   </si>
   <si>
     <t>DB23P</t>
@@ -1486,7 +1495,7 @@
     <t>Varicap 47pF</t>
   </si>
   <si>
-    <t>Not populated on original boards</t>
+    <t>[RARE] Not populated on original boards</t>
   </si>
   <si>
     <t>C403</t>
@@ -2147,10 +2156,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2192,10 +2201,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -2214,67 +2223,79 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2285,364 +2306,376 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2653,70 +2686,70 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2727,30 +2760,30 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2761,347 +2794,350 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B38">
         <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B40">
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B42">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B43">
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B46">
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B50">
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E50" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E52" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E53" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>204</v>
+        <v>205</v>
+      </c>
+      <c r="D54" t="s">
+        <v>23</v>
       </c>
       <c r="E54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3112,536 +3148,536 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E56" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B58">
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B59">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E59" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B63">
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D64" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B65">
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E65" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E66" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B67">
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E67" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B68">
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E68" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E70" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E71" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E72" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D74" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E74" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B75">
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E75" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D76" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E76" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B77">
         <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E77" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E78" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E79" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E80" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E81" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3652,205 +3688,205 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B83">
         <v>31</v>
       </c>
       <c r="C83" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D83" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E83" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B84">
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D84" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E84" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B85">
         <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D85" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E85" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B86">
         <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D86" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E86" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B87">
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D87" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E87" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B88">
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D88" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E88" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D89" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E89" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B90">
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E90" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E91" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3861,61 +3897,67 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>361</v>
+        <v>362</v>
+      </c>
+      <c r="D93" t="s">
+        <v>363</v>
       </c>
       <c r="E93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94" t="s">
+        <v>366</v>
+      </c>
+      <c r="D94" t="s">
+        <v>367</v>
+      </c>
+      <c r="E94" t="s">
+        <v>61</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="E94" t="s">
-        <v>60</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3926,285 +3968,285 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D97" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E97" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D98" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D99" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D100" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E100" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D101" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E101" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D102" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E102" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D103" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D104" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E104" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D105" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D106" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E106" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D107" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E107" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D108" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E108" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D109" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E109" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4215,38 +4257,41 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D111" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>447</v>
+        <v>450</v>
+      </c>
+      <c r="D112" t="s">
+        <v>23</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4257,114 +4302,114 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B114">
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D114" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D115" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E115" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D116" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E116" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D117" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E117" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D118" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E118" t="s">
         <v>17</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>18</v>
@@ -4372,7 +4417,7 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4386,16 +4431,16 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E120" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4403,16 +4448,16 @@
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E121" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4420,16 +4465,16 @@
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E122" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4437,59 +4482,59 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B124">
         <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="E124" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B125">
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D125" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E125" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4497,21 +4542,21 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D126" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E126" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4525,19 +4570,19 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D128" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E128" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4545,19 +4590,19 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D129" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E129" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4565,134 +4610,134 @@
         <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D130" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E130" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D131" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D132" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E132" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D133" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E133" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D134" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E134" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B135">
         <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D135" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E135" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4700,19 +4745,19 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D136" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E136" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4720,16 +4765,16 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E137" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4737,16 +4782,16 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D138" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4754,16 +4799,16 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D139" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4771,13 +4816,13 @@
         <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D140" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4785,21 +4830,21 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D141" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="60" customHeight="1">
       <c r="A143" s="5" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>

--- a/docs/a500-bom.xlsx
+++ b/docs/a500-bom.xlsx
@@ -1649,7 +1649,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Version: 0.2 (2024-03-25)
+      <t xml:space="preserve">Version: 0.3 (2024-03-25)
 </t>
     </r>
     <r>

--- a/docs/a500-bom.xlsx
+++ b/docs/a500-bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="541">
   <si>
     <t>Part Id</t>
   </si>
@@ -1483,7 +1483,13 @@
     <t>575-11044320</t>
   </si>
   <si>
-    <t>U10 U11 U12 U13 U16 U17 U18 U19 U20 U21 U22 U23 U34 U35 U40 U41</t>
+    <t>U10 U11 U12 U13 U34 U35 U40 U41</t>
+  </si>
+  <si>
+    <t>Socket, DIP20, Ultra Low Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 575-115433203</t>
   </si>
   <si>
     <t>Optional bus termination, not populated on original boards</t>
@@ -1649,7 +1655,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Version: 0.3 (2024-03-25)
+      <t xml:space="preserve">Version: 0.4 (2024-04-07)
 </t>
     </r>
     <r>
@@ -2083,7 +2089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4499,7 +4505,7 @@
         <v>486</v>
       </c>
       <c r="B124">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>487</v>
@@ -4516,133 +4522,130 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
+        <v>486</v>
+      </c>
+      <c r="B125">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
+        <v>490</v>
+      </c>
+      <c r="E125" t="s">
+        <v>52</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
         <v>307</v>
       </c>
-      <c r="B125">
+      <c r="B126">
         <v>7</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>308</v>
       </c>
-      <c r="D125" t="s">
-        <v>490</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="D126" t="s">
+        <v>492</v>
+      </c>
+      <c r="E126" t="s">
         <v>293</v>
       </c>
-      <c r="F125" s="4" t="s">
+      <c r="F126" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="G125" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126" t="s">
-        <v>492</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="G126" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="E126" t="s">
+    </row>
+    <row r="127" spans="1:7">
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>494</v>
+      </c>
+      <c r="D127" t="s">
+        <v>495</v>
+      </c>
+      <c r="E127" t="s">
         <v>180</v>
       </c>
-      <c r="G126" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
+      <c r="G127" s="3" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="B128">
-        <v>4</v>
-      </c>
-      <c r="C128" t="s">
-        <v>496</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="A128" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E128" t="s">
-        <v>498</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>500</v>
-      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
     </row>
     <row r="129" spans="1:7">
       <c r="B129">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C129" t="s">
+        <v>498</v>
+      </c>
+      <c r="D129" t="s">
+        <v>499</v>
+      </c>
+      <c r="E129" t="s">
+        <v>500</v>
+      </c>
+      <c r="F129" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="D129" t="s">
+      <c r="G129" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="E129" t="s">
-        <v>503</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>503</v>
+      </c>
+      <c r="D130" t="s">
+        <v>504</v>
+      </c>
+      <c r="E130" t="s">
+        <v>505</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="B131">
         <v>2</v>
       </c>
-      <c r="C130" t="s">
-        <v>506</v>
-      </c>
-      <c r="D130" t="s">
-        <v>507</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="C131" t="s">
         <v>508</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="D131" t="s">
         <v>509</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="E131" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" t="s">
-        <v>130</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131" t="s">
-        <v>131</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="F131" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="E131" t="s">
-        <v>133</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>512</v>
@@ -4650,22 +4653,22 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D132" t="s">
         <v>513</v>
       </c>
       <c r="E132" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>514</v>
@@ -4673,91 +4676,94 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>257</v>
+        <v>125</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>258</v>
+        <v>126</v>
       </c>
       <c r="D133" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E133" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>259</v>
+        <v>127</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D134" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E134" t="s">
         <v>133</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>142</v>
+        <v>261</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>143</v>
+        <v>262</v>
       </c>
       <c r="D135" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E135" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>144</v>
+        <v>263</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>142</v>
+      </c>
       <c r="B136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C136" t="s">
+        <v>143</v>
+      </c>
+      <c r="D136" t="s">
         <v>519</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
+        <v>139</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G136" s="3" t="s">
         <v>520</v>
-      </c>
-      <c r="E136" t="s">
-        <v>133</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4765,86 +4771,106 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>523</v>
+        <v>521</v>
+      </c>
+      <c r="D137" t="s">
+        <v>522</v>
       </c>
       <c r="E137" t="s">
         <v>133</v>
       </c>
       <c r="F137" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="G137" s="3" t="s">
         <v>524</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="B138">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C138" t="s">
         <v>525</v>
       </c>
-      <c r="D138" t="s">
-        <v>502</v>
+      <c r="E138" t="s">
+        <v>133</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>526</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>527</v>
+        <v>448</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="B139">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C139" t="s">
+        <v>527</v>
+      </c>
+      <c r="D139" t="s">
+        <v>504</v>
+      </c>
+      <c r="F139" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="D139" t="s">
+      <c r="G139" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="B140">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C140" t="s">
+        <v>530</v>
+      </c>
+      <c r="D140" t="s">
+        <v>531</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="D140" t="s">
+      <c r="G140" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="B141">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
+        <v>534</v>
+      </c>
+      <c r="D141" t="s">
         <v>535</v>
       </c>
-      <c r="D141" t="s">
+      <c r="F141" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="F141" s="4" t="s">
+    </row>
+    <row r="142" spans="1:7">
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
         <v>537</v>
       </c>
-      <c r="G141" s="3" t="s">
+      <c r="D142" t="s">
+        <v>538</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="G142" s="3" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="60" customHeight="1">
-      <c r="A143" s="5" t="s">
-        <v>538</v>
+    <row r="144" spans="1:7" ht="60" customHeight="1">
+      <c r="A144" s="5" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -4862,8 +4888,8 @@
     <mergeCell ref="A110:G110"/>
     <mergeCell ref="A113:G113"/>
     <mergeCell ref="A119:G119"/>
-    <mergeCell ref="A127:G127"/>
-    <mergeCell ref="A143:G143"/>
+    <mergeCell ref="A128:G128"/>
+    <mergeCell ref="A144:G144"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F16" r:id="rId1"/>
@@ -4956,7 +4982,7 @@
     <hyperlink ref="F123" r:id="rId88"/>
     <hyperlink ref="F124" r:id="rId89"/>
     <hyperlink ref="F125" r:id="rId90"/>
-    <hyperlink ref="F128" r:id="rId91"/>
+    <hyperlink ref="F126" r:id="rId91"/>
     <hyperlink ref="F129" r:id="rId92"/>
     <hyperlink ref="F130" r:id="rId93"/>
     <hyperlink ref="F131" r:id="rId94"/>
@@ -4970,6 +4996,7 @@
     <hyperlink ref="F139" r:id="rId102"/>
     <hyperlink ref="F140" r:id="rId103"/>
     <hyperlink ref="F141" r:id="rId104"/>
+    <hyperlink ref="F142" r:id="rId105"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/a500-bom.xlsx
+++ b/docs/a500-bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="541">
   <si>
     <t>Part Id</t>
   </si>
@@ -4521,9 +4521,6 @@
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" t="s">
-        <v>486</v>
-      </c>
       <c r="B125">
         <v>8</v>
       </c>

--- a/docs/a500-bom.xlsx
+++ b/docs/a500-bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="545">
   <si>
     <t>Part Id</t>
   </si>
@@ -583,6 +583,9 @@
     <t>22µF 35V - Aluminum Electrolytic</t>
   </si>
   <si>
+    <t>C324 and C334 can be bipolar</t>
+  </si>
+  <si>
     <t>667-EEU-FR1H220B</t>
   </si>
   <si>
@@ -1282,7 +1285,7 @@
     <t>34 Pin DIL Header</t>
   </si>
   <si>
-    <t>Internal Floppy</t>
+    <t>Internal Floppy (remove pin 3), Rämixx500 see below</t>
   </si>
   <si>
     <t>DIL34</t>
@@ -1318,7 +1321,7 @@
     <t>8 Pin SIL Header</t>
   </si>
   <si>
-    <t>Keyboard</t>
+    <t>Keyboard (remove pin 5)</t>
   </si>
   <si>
     <t>SIL8</t>
@@ -1625,6 +1628,15 @@
   </si>
   <si>
     <t>200-SNT100BKG</t>
+  </si>
+  <si>
+    <t>34 Pin DIL Header, shrouded</t>
+  </si>
+  <si>
+    <t>No need to remove pin 3</t>
+  </si>
+  <si>
+    <t>538-70246-3404</t>
   </si>
   <si>
     <t>6 Pin Round DIN</t>
@@ -1655,7 +1667,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Version: 0.4 (2024-04-07)
+      <t xml:space="preserve">Version: 0.5 (2024-04-16)
 </t>
     </r>
     <r>
@@ -2089,7 +2101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3048,88 +3060,91 @@
       <c r="C50" t="s">
         <v>188</v>
       </c>
+      <c r="D50" t="s">
+        <v>189</v>
+      </c>
       <c r="E50" t="s">
         <v>180</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E51" t="s">
         <v>180</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E52" t="s">
         <v>180</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E53" t="s">
         <v>180</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D54" t="s">
         <v>23</v>
@@ -3138,12 +3153,12 @@
         <v>180</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3154,431 +3169,431 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E56" t="s">
         <v>133</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E57" t="s">
         <v>133</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B58">
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E58" t="s">
         <v>133</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B59">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E59" t="s">
         <v>133</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E60" t="s">
         <v>133</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E61" t="s">
         <v>133</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E62" t="s">
         <v>133</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B63">
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E63" t="s">
         <v>133</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D64" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E64" t="s">
         <v>133</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B65">
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E65" t="s">
         <v>133</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E66" t="s">
         <v>133</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B67">
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E67" t="s">
         <v>133</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B68">
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E68" t="s">
         <v>133</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E69" t="s">
         <v>133</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E70" t="s">
         <v>133</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E71" t="s">
         <v>133</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E72" t="s">
         <v>133</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E73" t="s">
         <v>133</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D74" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E74" t="s">
         <v>133</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B75">
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E75" t="s">
         <v>133</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D76" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E76" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3589,101 +3604,101 @@
         <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E77" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E78" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E79" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E80" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E81" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3694,205 +3709,205 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B83">
         <v>31</v>
       </c>
       <c r="C83" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D83" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E83" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B84">
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D84" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E84" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B85">
         <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D85" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E85" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B86">
         <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D86" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E86" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B87">
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D87" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E87" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B88">
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D88" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E88" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D89" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E89" t="s">
         <v>133</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B90">
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E90" t="s">
         <v>133</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E91" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3903,67 +3918,67 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D93" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E93" t="s">
         <v>61</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D94" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E94" t="s">
         <v>61</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E95" t="s">
         <v>133</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3974,285 +3989,285 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D97" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E97" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D98" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D99" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D100" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E100" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D101" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E101" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D102" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E102" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D103" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D104" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E104" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D105" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D106" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E106" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D107" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E107" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D108" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E108" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D109" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E109" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4263,41 +4278,41 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D111" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D112" t="s">
         <v>23</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4308,22 +4323,22 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B114">
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D114" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E114" t="s">
         <v>34</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>35</v>
@@ -4331,22 +4346,22 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D115" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E115" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>44</v>
@@ -4354,45 +4369,45 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D116" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E116" t="s">
         <v>24</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D117" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E117" t="s">
         <v>39</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>40</v>
@@ -4400,22 +4415,22 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D118" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E118" t="s">
         <v>17</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>18</v>
@@ -4423,7 +4438,7 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4437,13 +4452,13 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E120" t="s">
         <v>111</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>113</v>
@@ -4454,16 +4469,16 @@
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E121" t="s">
         <v>61</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4471,16 +4486,16 @@
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E122" t="s">
         <v>66</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4488,13 +4503,13 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E123" t="s">
         <v>48</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>49</v>
@@ -4502,22 +4517,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B124">
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E124" t="s">
         <v>52</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4525,13 +4540,13 @@
         <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E125" t="s">
         <v>52</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>71</v>
@@ -4539,25 +4554,25 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B126">
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D126" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E126" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4565,21 +4580,21 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D127" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E127" t="s">
         <v>180</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4593,19 +4608,19 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D129" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E129" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4613,19 +4628,19 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D130" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E130" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4633,19 +4648,19 @@
         <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D131" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E131" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4659,7 +4674,7 @@
         <v>131</v>
       </c>
       <c r="D132" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E132" t="s">
         <v>133</v>
@@ -4668,7 +4683,7 @@
         <v>134</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4682,7 +4697,7 @@
         <v>126</v>
       </c>
       <c r="D133" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E133" t="s">
         <v>118</v>
@@ -4691,53 +4706,53 @@
         <v>127</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D134" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E134" t="s">
         <v>133</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D135" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E135" t="s">
         <v>133</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4751,7 +4766,7 @@
         <v>143</v>
       </c>
       <c r="D136" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E136" t="s">
         <v>139</v>
@@ -4760,7 +4775,7 @@
         <v>144</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4768,19 +4783,19 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D137" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E137" t="s">
         <v>133</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4788,16 +4803,16 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E138" t="s">
         <v>133</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4805,16 +4820,16 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D139" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4822,16 +4837,16 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D140" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4839,35 +4854,58 @@
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D141" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>421</v>
+      </c>
       <c r="B142">
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D142" t="s">
-        <v>538</v>
+        <v>539</v>
+      </c>
+      <c r="E142" t="s">
+        <v>424</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="60" customHeight="1">
-      <c r="A144" s="5" t="s">
-        <v>540</v>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>541</v>
+      </c>
+      <c r="D143" t="s">
+        <v>542</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="60" customHeight="1">
+      <c r="A145" s="5" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -4886,7 +4924,7 @@
     <mergeCell ref="A113:G113"/>
     <mergeCell ref="A119:G119"/>
     <mergeCell ref="A128:G128"/>
-    <mergeCell ref="A144:G144"/>
+    <mergeCell ref="A145:G145"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F16" r:id="rId1"/>
@@ -4994,6 +5032,7 @@
     <hyperlink ref="F140" r:id="rId103"/>
     <hyperlink ref="F141" r:id="rId104"/>
     <hyperlink ref="F142" r:id="rId105"/>
+    <hyperlink ref="F143" r:id="rId106"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/a500-bom.xlsx
+++ b/docs/a500-bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="546">
   <si>
     <t>Part Id</t>
   </si>
@@ -331,580 +331,583 @@
     <t>U39</t>
   </si>
   <si>
+    <t>380227-06</t>
+  </si>
+  <si>
+    <t>74HCT245, Octal Tri-State Bus Transceiver</t>
+  </si>
+  <si>
+    <t>595-SN74HCT245N</t>
+  </si>
+  <si>
+    <t>U40 U41</t>
+  </si>
+  <si>
+    <t>901523-01</t>
+  </si>
+  <si>
+    <t>NE555, Timer</t>
+  </si>
+  <si>
+    <t>DIP8</t>
+  </si>
+  <si>
+    <t>595-NE555P</t>
+  </si>
+  <si>
+    <t>U42</t>
+  </si>
+  <si>
+    <t>Transistors</t>
+  </si>
+  <si>
+    <t>390254-01</t>
+  </si>
+  <si>
+    <t>MPF102 - N-Channel JFET</t>
+  </si>
+  <si>
+    <t>or PN4302. Rämixx500 SMD alternative: see below</t>
+  </si>
+  <si>
+    <t>TO-92</t>
+  </si>
+  <si>
+    <t>863-MPF102</t>
+  </si>
+  <si>
+    <t>Q321 Q331</t>
+  </si>
+  <si>
+    <t>902658-01</t>
+  </si>
+  <si>
+    <t>2N3904 - NPN</t>
+  </si>
+  <si>
+    <t>637-2N3904</t>
+  </si>
+  <si>
+    <t>Q501 Q711</t>
+  </si>
+  <si>
+    <t>902707-01</t>
+  </si>
+  <si>
+    <t>2N3906 - PNP</t>
+  </si>
+  <si>
+    <t>637-2N3906</t>
+  </si>
+  <si>
+    <t>Q301 Q502 Q503</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t>900850-01</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>or 1N914</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>512-1N4148</t>
+  </si>
+  <si>
+    <t>D501 D911 D912</t>
+  </si>
+  <si>
+    <t>Capacitors</t>
+  </si>
+  <si>
+    <t>390082-01</t>
+  </si>
+  <si>
+    <t>10nF - MLC Z5U</t>
+  </si>
+  <si>
+    <t>Axial</t>
+  </si>
+  <si>
+    <t>80-C410C103M5R-TR</t>
+  </si>
+  <si>
+    <t>C7 C8 C10 C12 C15 C32 C33 C34 C35 C36 C37 C39 C308 C701 C713 C800 C801 C802 C803</t>
+  </si>
+  <si>
+    <t>390082-02</t>
+  </si>
+  <si>
+    <t>100nF - MLC Z5U</t>
+  </si>
+  <si>
+    <t>80-C412C104K5R-TR</t>
+  </si>
+  <si>
+    <t>C711</t>
+  </si>
+  <si>
+    <t>390082-04</t>
+  </si>
+  <si>
+    <t>330nF - MLC Z5U</t>
+  </si>
+  <si>
+    <t>80-C440C334K5R-TR</t>
+  </si>
+  <si>
+    <t>C1 C2 C3 C4 C5 C6 C9 C11 C13 C14 C16 C17 C18 C19 C20 C40 C41 C42 C301 C302 C305 C325 C335 C501 C502 C804</t>
+  </si>
+  <si>
+    <t>900462-21</t>
+  </si>
+  <si>
+    <t>22pF - MLC NP0</t>
+  </si>
+  <si>
+    <t>594-A220J15C0GH5TAA</t>
+  </si>
+  <si>
+    <t>C911 E666</t>
+  </si>
+  <si>
+    <t>900462-29</t>
+  </si>
+  <si>
+    <t>47pF - MLC NP0</t>
+  </si>
+  <si>
+    <t>594-A470J15C0GH5TAA</t>
+  </si>
+  <si>
+    <t>E102 E103 E106 E107 E108 E109 E791 E792 E793 E794</t>
+  </si>
+  <si>
+    <t>900463-16</t>
+  </si>
+  <si>
+    <t>1nF - MLC X7R</t>
+  </si>
+  <si>
+    <t>80-C420C102J1G-TR</t>
+  </si>
+  <si>
+    <t>C411 C412 C413 C421 C422 C423</t>
+  </si>
+  <si>
+    <t>900463-23</t>
+  </si>
+  <si>
+    <t>3.9nF - MLC X7R</t>
+  </si>
+  <si>
+    <t>80-C430C392GAG5TA</t>
+  </si>
+  <si>
+    <t>C323 C333</t>
+  </si>
+  <si>
+    <t>900463-26</t>
+  </si>
+  <si>
+    <t>6.8nF - MLC X7R</t>
+  </si>
+  <si>
+    <t>80-C430C682GAG5TA</t>
+  </si>
+  <si>
+    <t>C322 C332</t>
+  </si>
+  <si>
+    <t>900463-36</t>
+  </si>
+  <si>
+    <t>47nF - MLC X7R</t>
+  </si>
+  <si>
+    <t>80-C420C473J5G5TA</t>
+  </si>
+  <si>
+    <t>C311 C312 C313 C314</t>
+  </si>
+  <si>
+    <t>900463-37</t>
+  </si>
+  <si>
+    <t>0.1µF - MLC XR7</t>
+  </si>
+  <si>
+    <t>80-C430C104F3G5TA</t>
+  </si>
+  <si>
+    <t>C321 C331</t>
+  </si>
+  <si>
+    <t>900410-13</t>
+  </si>
+  <si>
+    <t>4.7µF 16V - Aluminum Electrolytic</t>
+  </si>
+  <si>
+    <t>TH 5mm</t>
+  </si>
+  <si>
+    <t>667-EEU-EB1H4R7SB</t>
+  </si>
+  <si>
+    <t>C913</t>
+  </si>
+  <si>
+    <t>390101-06</t>
+  </si>
+  <si>
+    <t>10µF 35V - Aluminum Electrolytic</t>
+  </si>
+  <si>
+    <t>667-EEU-EB1J100SB</t>
+  </si>
+  <si>
+    <t>C306 C712</t>
+  </si>
+  <si>
+    <t>390101-04</t>
+  </si>
+  <si>
+    <t>22µF 35V - Aluminum Electrolytic</t>
+  </si>
+  <si>
+    <t>C324 and C334 can be bipolar</t>
+  </si>
+  <si>
+    <t>667-EEU-FR1H220B</t>
+  </si>
+  <si>
+    <t>C303 C304 C324 C334</t>
+  </si>
+  <si>
+    <t>251894-50</t>
+  </si>
+  <si>
+    <t>47µF 35V - Aluminum Electrolytic</t>
+  </si>
+  <si>
+    <t>667-EEU-FR1E470B</t>
+  </si>
+  <si>
+    <t>C821 C822</t>
+  </si>
+  <si>
+    <t>390101-02</t>
+  </si>
+  <si>
+    <t>100µF 16V - Aluminum Electrolytic</t>
+  </si>
+  <si>
+    <t>667-EEU-FR1C101B</t>
+  </si>
+  <si>
+    <t>C811 C812 C813 C814 C815 C816</t>
+  </si>
+  <si>
+    <t>251894-18</t>
+  </si>
+  <si>
+    <t>1000µF 10V - Aluminum Electrolytic</t>
+  </si>
+  <si>
+    <t>height &lt; 24mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 667-EEU-FR1C102LB</t>
+  </si>
+  <si>
+    <t>C307 C401 C402</t>
+  </si>
+  <si>
+    <t>251029-06</t>
+  </si>
+  <si>
+    <t>Varicap 6.8pF – 45pF</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>Resistors</t>
+  </si>
+  <si>
+    <t>901550-64</t>
+  </si>
+  <si>
+    <t>10Ω - 1/4W 5%</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-10R</t>
+  </si>
+  <si>
+    <t>R301 R302</t>
+  </si>
+  <si>
+    <t>901550-90</t>
+  </si>
+  <si>
+    <t>27Ω - 1/4W 5%</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-27R</t>
+  </si>
+  <si>
+    <t>R101 R102</t>
+  </si>
+  <si>
+    <t>901550-56</t>
+  </si>
+  <si>
+    <t>47Ω - 1/4W 5%</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-47R</t>
+  </si>
+  <si>
+    <t>R103 R104 R105 R106 R107 R113</t>
+  </si>
+  <si>
+    <t>901550-94</t>
+  </si>
+  <si>
+    <t>68Ω - 1/4W 5%</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-68R</t>
+  </si>
+  <si>
+    <t>E104 E105 FB101 R109 R111 R112 R114</t>
+  </si>
+  <si>
+    <t>901550-49</t>
+  </si>
+  <si>
+    <t>100Ω - 1/4W 5%</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-100R</t>
+  </si>
+  <si>
+    <t>R507</t>
+  </si>
+  <si>
+    <t>901550-89</t>
+  </si>
+  <si>
+    <t>150Ω - 1/4W 5%</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-150R</t>
+  </si>
+  <si>
+    <t>FB102 R409</t>
+  </si>
+  <si>
+    <t>901550-108</t>
+  </si>
+  <si>
+    <t>360Ω - 1/4W 5%</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-360R</t>
+  </si>
+  <si>
+    <t>R321 R331</t>
+  </si>
+  <si>
+    <t>901550-57</t>
+  </si>
+  <si>
+    <t>390Ω - 1/4W 5%</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-390R</t>
+  </si>
+  <si>
+    <t>R325 R335</t>
+  </si>
+  <si>
+    <t>901550-58</t>
+  </si>
+  <si>
+    <t>470Ω - 1/4W 5%</t>
+  </si>
+  <si>
+    <t>Skip R913 on Rämixx500</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-470R</t>
+  </si>
+  <si>
+    <t>R911 R913</t>
+  </si>
+  <si>
+    <t>901550-01</t>
+  </si>
+  <si>
+    <t>1kΩ - 1/4W 5%</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-1K</t>
+  </si>
+  <si>
+    <t>R191 R192 R303 R304 R305 R324 R334 R713 R915 R916</t>
+  </si>
+  <si>
+    <t>901550-23</t>
+  </si>
+  <si>
+    <t>2.7kΩ - 1/4W 5%</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-2K7</t>
+  </si>
+  <si>
+    <t>R307 R502</t>
+  </si>
+  <si>
+    <t>901550-19</t>
+  </si>
+  <si>
+    <t>4.7kΩ - 1/4W 5%</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-4K7</t>
+  </si>
+  <si>
+    <t>R201 R202 R402 R403 R404 R503 R504</t>
+  </si>
+  <si>
+    <t>901550-20</t>
+  </si>
+  <si>
+    <t>10kΩ - 1/4W 5%</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-10K</t>
+  </si>
+  <si>
+    <t>R306 R308 R322 R323 R332 R333 R339 R501 R502 R506 R914</t>
+  </si>
+  <si>
+    <t>901550-22</t>
+  </si>
+  <si>
+    <t>47kΩ - 1/4W 5%</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-47K</t>
+  </si>
+  <si>
+    <t>R712</t>
+  </si>
+  <si>
+    <t>901550-82</t>
+  </si>
+  <si>
+    <t>470kΩ - 1/4W 5%</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-470K</t>
+  </si>
+  <si>
+    <t>R326 R336</t>
+  </si>
+  <si>
+    <t>901550-84</t>
+  </si>
+  <si>
+    <t>1MΩ - 1/4W 5%</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-1M</t>
+  </si>
+  <si>
+    <t>R711</t>
+  </si>
+  <si>
+    <t>901600-55</t>
+  </si>
+  <si>
+    <t>0.47Ω - 1/2W 5%</t>
+  </si>
+  <si>
+    <t>603-FMP100JR-52-0R47</t>
+  </si>
+  <si>
+    <t>R405</t>
+  </si>
+  <si>
+    <t>901600-36</t>
+  </si>
+  <si>
+    <t>10Ω - 1/2W 5%</t>
+  </si>
+  <si>
+    <t>603-FMP100JR-52-10R</t>
+  </si>
+  <si>
+    <t>R309</t>
+  </si>
+  <si>
+    <t>901600-50</t>
+  </si>
+  <si>
+    <t>4.7Ω - 1/2W 5%</t>
+  </si>
+  <si>
+    <t>or 5.1Ω</t>
+  </si>
+  <si>
+    <t>603-FMP100JR-52-4R7</t>
+  </si>
+  <si>
+    <t>R401 R406 R408</t>
+  </si>
+  <si>
+    <t>901600-15</t>
+  </si>
+  <si>
+    <t>47Ω - 1/2W 5%</t>
+  </si>
+  <si>
+    <t>603-FMP100JR-52-47R</t>
+  </si>
+  <si>
+    <t>E501 E502 E503</t>
+  </si>
+  <si>
+    <t>390227-08</t>
+  </si>
+  <si>
+    <t>39Ω Isolated Resistor Network, 5 Elements</t>
+  </si>
+  <si>
+    <t>or 22Ω</t>
+  </si>
+  <si>
+    <t>SIP10</t>
+  </si>
+  <si>
+    <t>652-4610X-2LF-39</t>
+  </si>
+  <si>
+    <t>RP103</t>
+  </si>
+  <si>
     <t>390227-06</t>
-  </si>
-  <si>
-    <t>74HCT245, Octal Tri-State Bus Transceiver</t>
-  </si>
-  <si>
-    <t>595-SN74HCT245N</t>
-  </si>
-  <si>
-    <t>U40 U41</t>
-  </si>
-  <si>
-    <t>901523-01</t>
-  </si>
-  <si>
-    <t>NE555, Timer</t>
-  </si>
-  <si>
-    <t>DIP8</t>
-  </si>
-  <si>
-    <t>595-NE555P</t>
-  </si>
-  <si>
-    <t>U42</t>
-  </si>
-  <si>
-    <t>Transistors</t>
-  </si>
-  <si>
-    <t>390254-01</t>
-  </si>
-  <si>
-    <t>MPF102 - N-Channel JFET</t>
-  </si>
-  <si>
-    <t>or PN4302. Rämixx500 SMD alternative: see below</t>
-  </si>
-  <si>
-    <t>TO-92</t>
-  </si>
-  <si>
-    <t>863-MPF102</t>
-  </si>
-  <si>
-    <t>Q321 Q331</t>
-  </si>
-  <si>
-    <t>902658-01</t>
-  </si>
-  <si>
-    <t>2N3904 - NPN</t>
-  </si>
-  <si>
-    <t>637-2N3904</t>
-  </si>
-  <si>
-    <t>Q501 Q711</t>
-  </si>
-  <si>
-    <t>902707-01</t>
-  </si>
-  <si>
-    <t>2N3906 - PNP</t>
-  </si>
-  <si>
-    <t>637-2N3906</t>
-  </si>
-  <si>
-    <t>Q301 Q502 Q503</t>
-  </si>
-  <si>
-    <t>Diodes</t>
-  </si>
-  <si>
-    <t>900850-01</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
-    <t>or 1N914</t>
-  </si>
-  <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>512-1N4148</t>
-  </si>
-  <si>
-    <t>D501 D911 D912</t>
-  </si>
-  <si>
-    <t>Capacitors</t>
-  </si>
-  <si>
-    <t>390082-01</t>
-  </si>
-  <si>
-    <t>10nF - MLC Z5U</t>
-  </si>
-  <si>
-    <t>Axial</t>
-  </si>
-  <si>
-    <t>80-C410C103M5R-TR</t>
-  </si>
-  <si>
-    <t>C7 C8 C10 C12 C15 C32 C33 C34 C35 C36 C37 C39 C308 C701 C713 C800 C801 C802 C803</t>
-  </si>
-  <si>
-    <t>390082-02</t>
-  </si>
-  <si>
-    <t>100nF - MLC Z5U</t>
-  </si>
-  <si>
-    <t>80-C412C104K5R-TR</t>
-  </si>
-  <si>
-    <t>C711</t>
-  </si>
-  <si>
-    <t>390082-04</t>
-  </si>
-  <si>
-    <t>330nF - MLC Z5U</t>
-  </si>
-  <si>
-    <t>80-C440C334K5R-TR</t>
-  </si>
-  <si>
-    <t>C1 C2 C3 C4 C5 C6 C9 C11 C13 C14 C16 C17 C18 C19 C20 C40 C41 C42 C301 C302 C305 C325 C335 C501 C502 C804</t>
-  </si>
-  <si>
-    <t>900462-21</t>
-  </si>
-  <si>
-    <t>22pF - MLC NP0</t>
-  </si>
-  <si>
-    <t>594-A220J15C0GH5TAA</t>
-  </si>
-  <si>
-    <t>C911 E666</t>
-  </si>
-  <si>
-    <t>900462-29</t>
-  </si>
-  <si>
-    <t>47pF - MLC NP0</t>
-  </si>
-  <si>
-    <t>594-A470J15C0GH5TAA</t>
-  </si>
-  <si>
-    <t>E102 E103 E106 E107 E108 E109 E791 E792 E793 E794</t>
-  </si>
-  <si>
-    <t>900463-16</t>
-  </si>
-  <si>
-    <t>1nF - MLC X7R</t>
-  </si>
-  <si>
-    <t>80-C420C102J1G-TR</t>
-  </si>
-  <si>
-    <t>C411 C412 C413 C421 C422 C423</t>
-  </si>
-  <si>
-    <t>900463-23</t>
-  </si>
-  <si>
-    <t>3.9nF - MLC X7R</t>
-  </si>
-  <si>
-    <t>80-C430C392GAG5TA</t>
-  </si>
-  <si>
-    <t>C323 C333</t>
-  </si>
-  <si>
-    <t>900463-26</t>
-  </si>
-  <si>
-    <t>6.8nF - MLC X7R</t>
-  </si>
-  <si>
-    <t>80-C430C682GAG5TA</t>
-  </si>
-  <si>
-    <t>C322 C332</t>
-  </si>
-  <si>
-    <t>900463-36</t>
-  </si>
-  <si>
-    <t>47nF - MLC X7R</t>
-  </si>
-  <si>
-    <t>80-C420C473J5G5TA</t>
-  </si>
-  <si>
-    <t>C311 C312 C313 C314</t>
-  </si>
-  <si>
-    <t>900463-37</t>
-  </si>
-  <si>
-    <t>0.1µF - MLC XR7</t>
-  </si>
-  <si>
-    <t>80-C430C104F3G5TA</t>
-  </si>
-  <si>
-    <t>C321 C331</t>
-  </si>
-  <si>
-    <t>900410-13</t>
-  </si>
-  <si>
-    <t>4.7µF 16V - Aluminum Electrolytic</t>
-  </si>
-  <si>
-    <t>TH 5mm</t>
-  </si>
-  <si>
-    <t>667-EEU-EB1H4R7SB</t>
-  </si>
-  <si>
-    <t>C913</t>
-  </si>
-  <si>
-    <t>390101-06</t>
-  </si>
-  <si>
-    <t>10µF 35V - Aluminum Electrolytic</t>
-  </si>
-  <si>
-    <t>667-EEU-EB1J100SB</t>
-  </si>
-  <si>
-    <t>C306 C712</t>
-  </si>
-  <si>
-    <t>390101-04</t>
-  </si>
-  <si>
-    <t>22µF 35V - Aluminum Electrolytic</t>
-  </si>
-  <si>
-    <t>C324 and C334 can be bipolar</t>
-  </si>
-  <si>
-    <t>667-EEU-FR1H220B</t>
-  </si>
-  <si>
-    <t>C303 C304 C324 C334</t>
-  </si>
-  <si>
-    <t>251894-50</t>
-  </si>
-  <si>
-    <t>47µF 35V - Aluminum Electrolytic</t>
-  </si>
-  <si>
-    <t>667-EEU-FR1E470B</t>
-  </si>
-  <si>
-    <t>C821 C822</t>
-  </si>
-  <si>
-    <t>390101-02</t>
-  </si>
-  <si>
-    <t>100µF 16V - Aluminum Electrolytic</t>
-  </si>
-  <si>
-    <t>667-EEU-FR1C101B</t>
-  </si>
-  <si>
-    <t>C811 C812 C813 C814 C815 C816</t>
-  </si>
-  <si>
-    <t>251894-18</t>
-  </si>
-  <si>
-    <t>1000µF 10V - Aluminum Electrolytic</t>
-  </si>
-  <si>
-    <t>height &lt; 24mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 667-EEU-FR1C102LB</t>
-  </si>
-  <si>
-    <t>C307 C401 C402</t>
-  </si>
-  <si>
-    <t>251029-06</t>
-  </si>
-  <si>
-    <t>Varicap 6.8pF – 45pF</t>
-  </si>
-  <si>
-    <t>TC9</t>
-  </si>
-  <si>
-    <t>Resistors</t>
-  </si>
-  <si>
-    <t>901550-64</t>
-  </si>
-  <si>
-    <t>10Ω - 1/4W 5%</t>
-  </si>
-  <si>
-    <t>603-MF0207FTE52-10R</t>
-  </si>
-  <si>
-    <t>R301 R302</t>
-  </si>
-  <si>
-    <t>901550-90</t>
-  </si>
-  <si>
-    <t>27Ω - 1/4W 5%</t>
-  </si>
-  <si>
-    <t>603-MF0207FTE52-27R</t>
-  </si>
-  <si>
-    <t>R101 R102</t>
-  </si>
-  <si>
-    <t>901550-56</t>
-  </si>
-  <si>
-    <t>47Ω - 1/4W 5%</t>
-  </si>
-  <si>
-    <t>603-MF0207FTE52-47R</t>
-  </si>
-  <si>
-    <t>R103 R104 R105 R106 R107 R113</t>
-  </si>
-  <si>
-    <t>901550-94</t>
-  </si>
-  <si>
-    <t>68Ω - 1/4W 5%</t>
-  </si>
-  <si>
-    <t>603-MF0207FTE52-68R</t>
-  </si>
-  <si>
-    <t>E104 E105 FB101 R109 R111 R112 R114</t>
-  </si>
-  <si>
-    <t>901550-49</t>
-  </si>
-  <si>
-    <t>100Ω - 1/4W 5%</t>
-  </si>
-  <si>
-    <t>603-MF0207FTE52-100R</t>
-  </si>
-  <si>
-    <t>R507</t>
-  </si>
-  <si>
-    <t>901550-89</t>
-  </si>
-  <si>
-    <t>150Ω - 1/4W 5%</t>
-  </si>
-  <si>
-    <t>603-MF0207FTE52-150R</t>
-  </si>
-  <si>
-    <t>FB102 R409</t>
-  </si>
-  <si>
-    <t>901550-108</t>
-  </si>
-  <si>
-    <t>360Ω - 1/4W 5%</t>
-  </si>
-  <si>
-    <t>603-MF0207FTE52-360R</t>
-  </si>
-  <si>
-    <t>R321 R331</t>
-  </si>
-  <si>
-    <t>901550-57</t>
-  </si>
-  <si>
-    <t>390Ω - 1/4W 5%</t>
-  </si>
-  <si>
-    <t>603-MF0207FTE52-390R</t>
-  </si>
-  <si>
-    <t>R325 R335</t>
-  </si>
-  <si>
-    <t>901550-58</t>
-  </si>
-  <si>
-    <t>470Ω - 1/4W 5%</t>
-  </si>
-  <si>
-    <t>Skip R913 on Rämixx500</t>
-  </si>
-  <si>
-    <t>603-MF0207FTE52-470R</t>
-  </si>
-  <si>
-    <t>R911 R913</t>
-  </si>
-  <si>
-    <t>901550-01</t>
-  </si>
-  <si>
-    <t>1kΩ - 1/4W 5%</t>
-  </si>
-  <si>
-    <t>603-MF0207FTE52-1K</t>
-  </si>
-  <si>
-    <t>R191 R192 R303 R304 R305 R324 R334 R713 R915 R916</t>
-  </si>
-  <si>
-    <t>901550-23</t>
-  </si>
-  <si>
-    <t>2.7kΩ - 1/4W 5%</t>
-  </si>
-  <si>
-    <t>603-MF0207FTE52-2K7</t>
-  </si>
-  <si>
-    <t>R307 R502</t>
-  </si>
-  <si>
-    <t>901550-19</t>
-  </si>
-  <si>
-    <t>4.7kΩ - 1/4W 5%</t>
-  </si>
-  <si>
-    <t>603-MF0207FTE52-4K7</t>
-  </si>
-  <si>
-    <t>R201 R202 R402 R403 R404 R503 R504</t>
-  </si>
-  <si>
-    <t>901550-20</t>
-  </si>
-  <si>
-    <t>10kΩ - 1/4W 5%</t>
-  </si>
-  <si>
-    <t>603-MF0207FTE52-10K</t>
-  </si>
-  <si>
-    <t>R306 R308 R322 R323 R332 R333 R339 R501 R502 R506 R914</t>
-  </si>
-  <si>
-    <t>901550-22</t>
-  </si>
-  <si>
-    <t>47kΩ - 1/4W 5%</t>
-  </si>
-  <si>
-    <t>603-MF0207FTE52-47K</t>
-  </si>
-  <si>
-    <t>R712</t>
-  </si>
-  <si>
-    <t>901550-82</t>
-  </si>
-  <si>
-    <t>470kΩ - 1/4W 5%</t>
-  </si>
-  <si>
-    <t>603-MF0207FTE52-470K</t>
-  </si>
-  <si>
-    <t>R326 R336</t>
-  </si>
-  <si>
-    <t>901550-84</t>
-  </si>
-  <si>
-    <t>1MΩ - 1/4W 5%</t>
-  </si>
-  <si>
-    <t>603-MF0207FTE52-1M</t>
-  </si>
-  <si>
-    <t>R711</t>
-  </si>
-  <si>
-    <t>901600-55</t>
-  </si>
-  <si>
-    <t>0.47Ω - 1/2W 5%</t>
-  </si>
-  <si>
-    <t>603-FMP100JR-52-0R47</t>
-  </si>
-  <si>
-    <t>R405</t>
-  </si>
-  <si>
-    <t>901600-36</t>
-  </si>
-  <si>
-    <t>10Ω - 1/2W 5%</t>
-  </si>
-  <si>
-    <t>603-FMP100JR-52-10R</t>
-  </si>
-  <si>
-    <t>R309</t>
-  </si>
-  <si>
-    <t>901600-50</t>
-  </si>
-  <si>
-    <t>4.7Ω - 1/2W 5%</t>
-  </si>
-  <si>
-    <t>or 5.1Ω</t>
-  </si>
-  <si>
-    <t>603-FMP100JR-52-4R7</t>
-  </si>
-  <si>
-    <t>R401 R406 R408</t>
-  </si>
-  <si>
-    <t>901600-15</t>
-  </si>
-  <si>
-    <t>47Ω - 1/2W 5%</t>
-  </si>
-  <si>
-    <t>603-FMP100JR-52-47R</t>
-  </si>
-  <si>
-    <t>E501 E502 E503</t>
-  </si>
-  <si>
-    <t>390227-08</t>
-  </si>
-  <si>
-    <t>39Ω Isolated Resistor Network, 5 Elements</t>
-  </si>
-  <si>
-    <t>or 22Ω</t>
-  </si>
-  <si>
-    <t>SIP10</t>
-  </si>
-  <si>
-    <t>652-4610X-2LF-39</t>
-  </si>
-  <si>
-    <t>RP103</t>
   </si>
   <si>
     <t>47Ω Isolated Resistor Network, 5 Elements</t>
@@ -1667,7 +1670,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Version: 0.5 (2024-04-16)
+      <t xml:space="preserve">Version: 0.6 (2024-04-28)
 </t>
     </r>
     <r>
@@ -3598,107 +3601,107 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>297</v>
       </c>
       <c r="B77">
         <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E77" t="s">
         <v>294</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E78" t="s">
         <v>294</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E79" t="s">
         <v>294</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E80" t="s">
         <v>294</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E81" t="s">
         <v>294</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3709,205 +3712,205 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B83">
         <v>31</v>
       </c>
       <c r="C83" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D83" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E83" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B84">
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D84" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E84" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B85">
         <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D85" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E85" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B86">
         <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D86" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E86" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B87">
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D87" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E87" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B88">
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D88" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E88" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D89" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E89" t="s">
         <v>133</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B90">
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E90" t="s">
         <v>133</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E91" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3918,67 +3921,67 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D93" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E93" t="s">
         <v>61</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D94" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E94" t="s">
         <v>61</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E95" t="s">
         <v>133</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3989,285 +3992,285 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D97" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E97" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D98" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D99" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D100" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E100" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D101" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E101" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D102" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E102" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D103" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D104" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E104" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D105" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D106" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E106" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D107" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E107" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D108" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E108" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D109" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E109" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4278,41 +4281,41 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D111" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D112" t="s">
         <v>23</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4323,22 +4326,22 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B114">
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D114" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E114" t="s">
         <v>34</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>35</v>
@@ -4346,22 +4349,22 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D115" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E115" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>44</v>
@@ -4369,45 +4372,45 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D116" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E116" t="s">
         <v>24</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D117" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E117" t="s">
         <v>39</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>40</v>
@@ -4415,22 +4418,22 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D118" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E118" t="s">
         <v>17</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>18</v>
@@ -4438,7 +4441,7 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4452,13 +4455,13 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E120" t="s">
         <v>111</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>113</v>
@@ -4469,16 +4472,16 @@
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E121" t="s">
         <v>61</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4486,16 +4489,16 @@
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E122" t="s">
         <v>66</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4503,13 +4506,13 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E123" t="s">
         <v>48</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>49</v>
@@ -4517,22 +4520,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B124">
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E124" t="s">
         <v>52</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4540,13 +4543,13 @@
         <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E125" t="s">
         <v>52</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>71</v>
@@ -4554,25 +4557,25 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B126">
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D126" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E126" t="s">
         <v>294</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4580,21 +4583,21 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D127" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E127" t="s">
         <v>180</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4608,19 +4611,19 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D129" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E129" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4628,19 +4631,19 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D130" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E130" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4648,19 +4651,19 @@
         <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D131" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E131" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4674,7 +4677,7 @@
         <v>131</v>
       </c>
       <c r="D132" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E132" t="s">
         <v>133</v>
@@ -4683,7 +4686,7 @@
         <v>134</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4697,7 +4700,7 @@
         <v>126</v>
       </c>
       <c r="D133" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E133" t="s">
         <v>118</v>
@@ -4706,7 +4709,7 @@
         <v>127</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4720,7 +4723,7 @@
         <v>259</v>
       </c>
       <c r="D134" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E134" t="s">
         <v>133</v>
@@ -4729,7 +4732,7 @@
         <v>260</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4743,7 +4746,7 @@
         <v>263</v>
       </c>
       <c r="D135" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E135" t="s">
         <v>133</v>
@@ -4752,7 +4755,7 @@
         <v>264</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4766,7 +4769,7 @@
         <v>143</v>
       </c>
       <c r="D136" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E136" t="s">
         <v>139</v>
@@ -4775,7 +4778,7 @@
         <v>144</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4783,19 +4786,19 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D137" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E137" t="s">
         <v>133</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4803,16 +4806,16 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E138" t="s">
         <v>133</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4820,16 +4823,16 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D139" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4837,16 +4840,16 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D140" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4854,36 +4857,36 @@
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D141" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D142" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E142" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4891,21 +4894,21 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D143" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="60" customHeight="1">
       <c r="A145" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>

--- a/docs/a500-bom.xlsx
+++ b/docs/a500-bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="545">
   <si>
     <t>Part Id</t>
   </si>
@@ -46,13 +46,13 @@
     <t>PCB Assembly</t>
   </si>
   <si>
-    <t>[PAL] Rämixx500 by SukkoPera</t>
+    <t>[RARE] [PAL] Rämixx500 by SukkoPera</t>
   </si>
   <si>
     <t>312812-02</t>
   </si>
   <si>
-    <t>[NTSC] Rämixx500 by SukkoPera</t>
+    <t>[RARE] [NTSC] Rämixx500 by SukkoPera</t>
   </si>
   <si>
     <t>Custom Chips</t>
@@ -145,7 +145,7 @@
     <t>ROM 256Kx16 Kickstart 2.04</t>
   </si>
   <si>
-    <t>Replace with AM27C400, MX27C4100 or similar</t>
+    <t>[RARE] Replace with AM27C400, MX27C4100 or similar</t>
   </si>
   <si>
     <t>U6</t>
@@ -367,7 +367,7 @@
     <t>MPF102 - N-Channel JFET</t>
   </si>
   <si>
-    <t>or PN4302. Rämixx500 SMD alternative: see below</t>
+    <t>[RARE] or PN4302. Rämixx500 SMD alternative: see below</t>
   </si>
   <si>
     <t>TO-92</t>
@@ -625,7 +625,7 @@
     <t>height &lt; 24mm</t>
   </si>
   <si>
-    <t xml:space="preserve"> 667-EEU-FR1C102LB</t>
+    <t>667-EEU-FR1C102LB</t>
   </si>
   <si>
     <t>C307 C401 C402</t>
@@ -1339,18 +1339,15 @@
     <t>390224-01</t>
   </si>
   <si>
-    <t>56 Pin DIL Header, Right Angle</t>
-  </si>
-  <si>
-    <t>Expansion</t>
+    <t>56 Pin DIL Header, right angle, mating length 6.9mm</t>
+  </si>
+  <si>
+    <t>Expansion (e.g. W+P 947-15-056-00)</t>
   </si>
   <si>
     <t>RA-56H</t>
   </si>
   <si>
-    <t>200-TSW12825LDRA</t>
-  </si>
-  <si>
     <t>P9</t>
   </si>
   <si>
@@ -1495,7 +1492,7 @@
     <t>Socket, DIP20, Ultra Low Profile</t>
   </si>
   <si>
-    <t xml:space="preserve"> 575-115433203</t>
+    <t>575-115433203</t>
   </si>
   <si>
     <t>Optional bus termination, not populated on original boards</t>
@@ -1670,7 +1667,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Version: 0.6 (2024-04-28)
+      <t xml:space="preserve">Version: 0.7 (2024-06-05)
 </t>
     </r>
     <r>
@@ -4261,16 +4258,13 @@
       <c r="E109" t="s">
         <v>443</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="G109" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4281,41 +4275,41 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
+        <v>446</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
         <v>447</v>
       </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>448</v>
       </c>
-      <c r="D111" t="s">
+      <c r="G111" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
+        <v>450</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
         <v>451</v>
-      </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-      <c r="C112" t="s">
-        <v>452</v>
       </c>
       <c r="D112" t="s">
         <v>23</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4326,22 +4320,22 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B114">
         <v>2</v>
       </c>
       <c r="C114" t="s">
+        <v>455</v>
+      </c>
+      <c r="D114" t="s">
         <v>456</v>
-      </c>
-      <c r="D114" t="s">
-        <v>457</v>
       </c>
       <c r="E114" t="s">
         <v>34</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>35</v>
@@ -4349,22 +4343,22 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
+        <v>458</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
         <v>459</v>
       </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>460</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>461</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>463</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>44</v>
@@ -4372,45 +4366,45 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
       <c r="C116" t="s">
+        <v>464</v>
+      </c>
+      <c r="D116" t="s">
         <v>465</v>
-      </c>
-      <c r="D116" t="s">
-        <v>466</v>
       </c>
       <c r="E116" t="s">
         <v>24</v>
       </c>
       <c r="F116" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="G116" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
+        <v>468</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
         <v>469</v>
       </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>470</v>
-      </c>
-      <c r="D117" t="s">
-        <v>471</v>
       </c>
       <c r="E117" t="s">
         <v>39</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>40</v>
@@ -4418,22 +4412,22 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
+        <v>472</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
         <v>473</v>
       </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>474</v>
-      </c>
-      <c r="D118" t="s">
-        <v>475</v>
       </c>
       <c r="E118" t="s">
         <v>17</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>18</v>
@@ -4441,7 +4435,7 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4455,13 +4449,13 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E120" t="s">
         <v>111</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>113</v>
@@ -4472,16 +4466,16 @@
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E121" t="s">
         <v>61</v>
       </c>
       <c r="F121" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="G121" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4489,16 +4483,16 @@
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E122" t="s">
         <v>66</v>
       </c>
       <c r="F122" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="G122" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4506,13 +4500,13 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E123" t="s">
         <v>48</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>49</v>
@@ -4520,22 +4514,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B124">
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E124" t="s">
         <v>52</v>
       </c>
       <c r="F124" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="G124" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4543,13 +4537,13 @@
         <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E125" t="s">
         <v>52</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>71</v>
@@ -4566,7 +4560,7 @@
         <v>310</v>
       </c>
       <c r="D126" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E126" t="s">
         <v>294</v>
@@ -4575,7 +4569,7 @@
         <v>311</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4583,21 +4577,21 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
+        <v>495</v>
+      </c>
+      <c r="D127" t="s">
         <v>496</v>
-      </c>
-      <c r="D127" t="s">
-        <v>497</v>
       </c>
       <c r="E127" t="s">
         <v>180</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4611,19 +4605,19 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
+        <v>499</v>
+      </c>
+      <c r="D129" t="s">
         <v>500</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>501</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="F129" s="4" t="s">
+      <c r="G129" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4631,19 +4625,19 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
+        <v>504</v>
+      </c>
+      <c r="D130" t="s">
         <v>505</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>506</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="G130" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4651,19 +4645,19 @@
         <v>2</v>
       </c>
       <c r="C131" t="s">
+        <v>509</v>
+      </c>
+      <c r="D131" t="s">
         <v>510</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>511</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="G131" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4677,7 +4671,7 @@
         <v>131</v>
       </c>
       <c r="D132" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E132" t="s">
         <v>133</v>
@@ -4686,7 +4680,7 @@
         <v>134</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4700,7 +4694,7 @@
         <v>126</v>
       </c>
       <c r="D133" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E133" t="s">
         <v>118</v>
@@ -4709,7 +4703,7 @@
         <v>127</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4723,7 +4717,7 @@
         <v>259</v>
       </c>
       <c r="D134" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E134" t="s">
         <v>133</v>
@@ -4732,7 +4726,7 @@
         <v>260</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4746,7 +4740,7 @@
         <v>263</v>
       </c>
       <c r="D135" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E135" t="s">
         <v>133</v>
@@ -4755,7 +4749,7 @@
         <v>264</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4769,7 +4763,7 @@
         <v>143</v>
       </c>
       <c r="D136" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E136" t="s">
         <v>139</v>
@@ -4778,7 +4772,7 @@
         <v>144</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4786,19 +4780,19 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
+        <v>522</v>
+      </c>
+      <c r="D137" t="s">
         <v>523</v>
-      </c>
-      <c r="D137" t="s">
-        <v>524</v>
       </c>
       <c r="E137" t="s">
         <v>133</v>
       </c>
       <c r="F137" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="G137" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4806,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E138" t="s">
         <v>133</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4823,16 +4817,16 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
+        <v>528</v>
+      </c>
+      <c r="D139" t="s">
+        <v>505</v>
+      </c>
+      <c r="F139" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="D139" t="s">
-        <v>506</v>
-      </c>
-      <c r="F139" s="4" t="s">
+      <c r="G139" s="3" t="s">
         <v>530</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4840,16 +4834,16 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
+        <v>531</v>
+      </c>
+      <c r="D140" t="s">
         <v>532</v>
       </c>
-      <c r="D140" t="s">
+      <c r="F140" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="F140" s="4" t="s">
+      <c r="G140" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4857,13 +4851,13 @@
         <v>5</v>
       </c>
       <c r="C141" t="s">
+        <v>535</v>
+      </c>
+      <c r="D141" t="s">
         <v>536</v>
       </c>
-      <c r="D141" t="s">
+      <c r="F141" s="4" t="s">
         <v>537</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4874,16 +4868,16 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
+        <v>538</v>
+      </c>
+      <c r="D142" t="s">
         <v>539</v>
-      </c>
-      <c r="D142" t="s">
-        <v>540</v>
       </c>
       <c r="E142" t="s">
         <v>425</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>427</v>
@@ -4894,13 +4888,13 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
+        <v>541</v>
+      </c>
+      <c r="D143" t="s">
         <v>542</v>
       </c>
-      <c r="D143" t="s">
+      <c r="F143" s="4" t="s">
         <v>543</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>544</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>411</v>
@@ -4908,7 +4902,7 @@
     </row>
     <row r="145" spans="1:1" ht="60" customHeight="1">
       <c r="A145" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -5008,34 +5002,33 @@
     <hyperlink ref="F106" r:id="rId76"/>
     <hyperlink ref="F107" r:id="rId77"/>
     <hyperlink ref="F108" r:id="rId78"/>
-    <hyperlink ref="F109" r:id="rId79"/>
-    <hyperlink ref="F114" r:id="rId80"/>
-    <hyperlink ref="F115" r:id="rId81"/>
-    <hyperlink ref="F116" r:id="rId82"/>
-    <hyperlink ref="F117" r:id="rId83"/>
-    <hyperlink ref="F118" r:id="rId84"/>
-    <hyperlink ref="F120" r:id="rId85"/>
-    <hyperlink ref="F121" r:id="rId86"/>
-    <hyperlink ref="F122" r:id="rId87"/>
-    <hyperlink ref="F123" r:id="rId88"/>
-    <hyperlink ref="F124" r:id="rId89"/>
-    <hyperlink ref="F125" r:id="rId90"/>
-    <hyperlink ref="F126" r:id="rId91"/>
-    <hyperlink ref="F129" r:id="rId92"/>
-    <hyperlink ref="F130" r:id="rId93"/>
-    <hyperlink ref="F131" r:id="rId94"/>
-    <hyperlink ref="F132" r:id="rId95"/>
-    <hyperlink ref="F133" r:id="rId96"/>
-    <hyperlink ref="F134" r:id="rId97"/>
-    <hyperlink ref="F135" r:id="rId98"/>
-    <hyperlink ref="F136" r:id="rId99"/>
-    <hyperlink ref="F137" r:id="rId100"/>
-    <hyperlink ref="F138" r:id="rId101"/>
-    <hyperlink ref="F139" r:id="rId102"/>
-    <hyperlink ref="F140" r:id="rId103"/>
-    <hyperlink ref="F141" r:id="rId104"/>
-    <hyperlink ref="F142" r:id="rId105"/>
-    <hyperlink ref="F143" r:id="rId106"/>
+    <hyperlink ref="F114" r:id="rId79"/>
+    <hyperlink ref="F115" r:id="rId80"/>
+    <hyperlink ref="F116" r:id="rId81"/>
+    <hyperlink ref="F117" r:id="rId82"/>
+    <hyperlink ref="F118" r:id="rId83"/>
+    <hyperlink ref="F120" r:id="rId84"/>
+    <hyperlink ref="F121" r:id="rId85"/>
+    <hyperlink ref="F122" r:id="rId86"/>
+    <hyperlink ref="F123" r:id="rId87"/>
+    <hyperlink ref="F124" r:id="rId88"/>
+    <hyperlink ref="F125" r:id="rId89"/>
+    <hyperlink ref="F126" r:id="rId90"/>
+    <hyperlink ref="F129" r:id="rId91"/>
+    <hyperlink ref="F130" r:id="rId92"/>
+    <hyperlink ref="F131" r:id="rId93"/>
+    <hyperlink ref="F132" r:id="rId94"/>
+    <hyperlink ref="F133" r:id="rId95"/>
+    <hyperlink ref="F134" r:id="rId96"/>
+    <hyperlink ref="F135" r:id="rId97"/>
+    <hyperlink ref="F136" r:id="rId98"/>
+    <hyperlink ref="F137" r:id="rId99"/>
+    <hyperlink ref="F138" r:id="rId100"/>
+    <hyperlink ref="F139" r:id="rId101"/>
+    <hyperlink ref="F140" r:id="rId102"/>
+    <hyperlink ref="F141" r:id="rId103"/>
+    <hyperlink ref="F142" r:id="rId104"/>
+    <hyperlink ref="F143" r:id="rId105"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
